--- a/data/trans_orig/P14B13-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B13-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0FC01C9-76F6-4B56-8685-65DE78F4A34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DDD4B76-61BB-4C66-A26E-2AFCB135C623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F20956AB-070E-4EF4-94B8-B86E7E9A208A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BFE92EC0-D0C8-4343-B998-FE26B9AB2E91}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="482">
   <si>
     <t>Población cuyo dolor de espalda le limita en 2012 (Tasa respuesta: 13,39%)</t>
   </si>
@@ -85,55 +85,55 @@
     <t>81,52%</t>
   </si>
   <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
   </si>
   <si>
     <t>85,97%</t>
   </si>
   <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
   </si>
   <si>
     <t>84,62%</t>
   </si>
   <si>
-    <t>75,27%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
+    <t>74,58%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
   </si>
   <si>
     <t>18,48%</t>
   </si>
   <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>41,99%</t>
   </si>
   <si>
     <t>14,03%</t>
   </si>
   <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
   </si>
   <si>
     <t>15,38%</t>
   </si>
   <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
   </si>
   <si>
     <t>100%</t>
@@ -145,55 +145,55 @@
     <t>71,24%</t>
   </si>
   <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
   </si>
   <si>
     <t>78,42%</t>
   </si>
   <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
   </si>
   <si>
     <t>76,11%</t>
   </si>
   <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
   </si>
   <si>
     <t>28,76%</t>
   </si>
   <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
   </si>
   <si>
     <t>21,58%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
   </si>
   <si>
     <t>23,89%</t>
   </si>
   <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>33,95%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -202,55 +202,55 @@
     <t>61,32%</t>
   </si>
   <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
   </si>
   <si>
     <t>68,7%</t>
   </si>
   <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
   </si>
   <si>
     <t>66,7%</t>
   </si>
   <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
+    <t>59,04%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
   </si>
   <si>
     <t>38,68%</t>
   </si>
   <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
   </si>
   <si>
     <t>31,3%</t>
   </si>
   <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
   </si>
   <si>
     <t>33,3%</t>
   </si>
   <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -259,55 +259,55 @@
     <t>89,38%</t>
   </si>
   <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
   </si>
   <si>
     <t>93,81%</t>
   </si>
   <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
   </si>
   <si>
     <t>92,45%</t>
   </si>
   <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
   </si>
   <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
   </si>
   <si>
     <t>6,19%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>17,15%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
   </si>
   <si>
     <t>7,55%</t>
   </si>
   <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -316,10 +316,10 @@
     <t>75,76%</t>
   </si>
   <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>89,27%</t>
   </si>
   <si>
     <t>74,49%</t>
@@ -328,31 +328,31 @@
     <t>59,99%</t>
   </si>
   <si>
-    <t>85,05%</t>
+    <t>84,85%</t>
   </si>
   <si>
     <t>75,03%</t>
   </si>
   <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
+    <t>65,44%</t>
+  </si>
+  <si>
+    <t>83,61%</t>
   </si>
   <si>
     <t>24,24%</t>
   </si>
   <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>42,1%</t>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
   </si>
   <si>
     <t>25,51%</t>
   </si>
   <si>
-    <t>14,95%</t>
+    <t>15,15%</t>
   </si>
   <si>
     <t>40,01%</t>
@@ -361,10 +361,10 @@
     <t>24,97%</t>
   </si>
   <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -373,55 +373,55 @@
     <t>49,13%</t>
   </si>
   <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>60,46%</t>
+    <t>36,76%</t>
+  </si>
+  <si>
+    <t>61,15%</t>
   </si>
   <si>
     <t>65,53%</t>
   </si>
   <si>
-    <t>56,82%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
   </si>
   <si>
     <t>60,04%</t>
   </si>
   <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
   </si>
   <si>
     <t>50,87%</t>
   </si>
   <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>63,24%</t>
   </si>
   <si>
     <t>34,47%</t>
   </si>
   <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
   </si>
   <si>
     <t>39,96%</t>
   </si>
   <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -430,109 +430,109 @@
     <t>62,52%</t>
   </si>
   <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>74,35%</t>
   </si>
   <si>
     <t>77,18%</t>
   </si>
   <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
   </si>
   <si>
     <t>72,21%</t>
   </si>
   <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
   </si>
   <si>
     <t>37,48%</t>
   </si>
   <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
   </si>
   <si>
     <t>22,82%</t>
   </si>
   <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
   </si>
   <si>
     <t>27,79%</t>
   </si>
   <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
   </si>
   <si>
     <t>66,02%</t>
   </si>
   <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
   </si>
   <si>
     <t>75,38%</t>
   </si>
   <si>
-    <t>71,47%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
   </si>
   <si>
     <t>72,34%</t>
   </si>
   <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>75,16%</t>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
   </si>
   <si>
     <t>33,98%</t>
   </si>
   <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>28,53%</t>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
   </si>
   <si>
     <t>27,66%</t>
   </si>
   <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>30,86%</t>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -544,286 +544,283 @@
     <t>55,9%</t>
   </si>
   <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
   </si>
   <si>
     <t>81,97%</t>
   </si>
   <si>
-    <t>68,27%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
   </si>
   <si>
     <t>73,28%</t>
   </si>
   <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>82,43%</t>
+    <t>62,9%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
   </si>
   <si>
     <t>44,1%</t>
   </si>
   <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
   </si>
   <si>
     <t>18,03%</t>
   </si>
   <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
   </si>
   <si>
     <t>26,72%</t>
   </si>
   <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
   </si>
   <si>
     <t>73,92%</t>
   </si>
   <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
   </si>
   <si>
     <t>68,71%</t>
   </si>
   <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>83,1%</t>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
   </si>
   <si>
     <t>70,73%</t>
   </si>
   <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>82,65%</t>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
   </si>
   <si>
     <t>26,08%</t>
   </si>
   <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
   </si>
   <si>
     <t>31,29%</t>
   </si>
   <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
   </si>
   <si>
     <t>29,27%</t>
   </si>
   <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
   </si>
   <si>
     <t>62,15%</t>
   </si>
   <si>
-    <t>42,92%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
   </si>
   <si>
     <t>70,51%</t>
   </si>
   <si>
-    <t>56,12%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
+    <t>57,61%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
   </si>
   <si>
     <t>67,79%</t>
   </si>
   <si>
-    <t>56,84%</t>
-  </si>
-  <si>
-    <t>77,95%</t>
+    <t>56,83%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
   </si>
   <si>
     <t>37,85%</t>
   </si>
   <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>57,08%</t>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
   </si>
   <si>
     <t>29,49%</t>
   </si>
   <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
   </si>
   <si>
     <t>32,21%</t>
   </si>
   <si>
-    <t>22,05%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>43,17%</t>
   </si>
   <si>
     <t>81,34%</t>
   </si>
   <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
   </si>
   <si>
     <t>77,35%</t>
   </si>
   <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
   </si>
   <si>
     <t>78,53%</t>
   </si>
   <si>
-    <t>69,23%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
+    <t>68,9%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
   </si>
   <si>
     <t>18,66%</t>
   </si>
   <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
   </si>
   <si>
     <t>22,65%</t>
   </si>
   <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
   </si>
   <si>
     <t>21,47%</t>
   </si>
   <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
   </si>
   <si>
     <t>80,85%</t>
   </si>
   <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
   </si>
   <si>
     <t>80,13%</t>
   </si>
   <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
   </si>
   <si>
     <t>80,4%</t>
   </si>
   <si>
-    <t>67,74%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
   </si>
   <si>
     <t>19,15%</t>
   </si>
   <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
   </si>
   <si>
     <t>19,87%</t>
   </si>
   <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
   </si>
   <si>
     <t>19,6%</t>
   </si>
   <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
   </si>
   <si>
     <t>67,81%</t>
   </si>
   <si>
-    <t>44,29%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>70,11%</t>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -832,199 +829,190 @@
     <t>82,24%</t>
   </si>
   <si>
-    <t>67,95%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
+    <t>91,64%</t>
   </si>
   <si>
     <t>32,19%</t>
   </si>
   <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>29,89%</t>
+    <t>26,16%</t>
   </si>
   <si>
     <t>17,76%</t>
   </si>
   <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>32,05%</t>
+    <t>8,36%</t>
   </si>
   <si>
     <t>70,81%</t>
   </si>
   <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>83,02%</t>
+    <t>57,15%</t>
+  </si>
+  <si>
+    <t>81,04%</t>
   </si>
   <si>
     <t>61,74%</t>
   </si>
   <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
   </si>
   <si>
     <t>64,96%</t>
   </si>
   <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
   </si>
   <si>
     <t>29,19%</t>
   </si>
   <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>42,85%</t>
   </si>
   <si>
     <t>38,26%</t>
   </si>
   <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
   </si>
   <si>
     <t>35,04%</t>
   </si>
   <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
   </si>
   <si>
     <t>67,24%</t>
   </si>
   <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>77,59%</t>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
   </si>
   <si>
     <t>76,42%</t>
   </si>
   <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
   </si>
   <si>
     <t>72,83%</t>
   </si>
   <si>
-    <t>65,26%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
+    <t>64,04%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
   </si>
   <si>
     <t>32,76%</t>
   </si>
   <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
   </si>
   <si>
     <t>23,58%</t>
   </si>
   <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
   </si>
   <si>
     <t>27,17%</t>
   </si>
   <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>34,74%</t>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>35,96%</t>
   </si>
   <si>
     <t>69,49%</t>
   </si>
   <si>
-    <t>63,17%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
   </si>
   <si>
     <t>73,97%</t>
   </si>
   <si>
-    <t>69,33%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
   </si>
   <si>
     <t>72,36%</t>
   </si>
   <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
   </si>
   <si>
     <t>30,51%</t>
   </si>
   <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
   </si>
   <si>
     <t>26,03%</t>
   </si>
   <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
   </si>
   <si>
     <t>27,64%</t>
   </si>
   <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
   </si>
   <si>
     <t>Población cuyo dolor de espalda le limita en 2023 (Tasa respuesta: 29,15%)</t>
@@ -1033,475 +1021,469 @@
     <t>86,66%</t>
   </si>
   <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
   </si>
   <si>
     <t>88,43%</t>
   </si>
   <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
   </si>
   <si>
     <t>87,62%</t>
   </si>
   <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
   </si>
   <si>
     <t>13,34%</t>
   </si>
   <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
   </si>
   <si>
     <t>11,57%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
   </si>
   <si>
     <t>12,38%</t>
   </si>
   <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
   </si>
   <si>
     <t>61,25%</t>
   </si>
   <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>74,27%</t>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
   </si>
   <si>
     <t>70,09%</t>
   </si>
   <si>
-    <t>63,2%</t>
-  </si>
-  <si>
-    <t>76,33%</t>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>75,88%</t>
   </si>
   <si>
     <t>67,26%</t>
   </si>
   <si>
-    <t>60,38%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>72,92%</t>
   </si>
   <si>
     <t>38,75%</t>
   </si>
   <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
   </si>
   <si>
     <t>29,91%</t>
   </si>
   <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>36,8%</t>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
   </si>
   <si>
     <t>32,74%</t>
   </si>
   <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
+    <t>27,08%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
   </si>
   <si>
     <t>69,0%</t>
   </si>
   <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
   </si>
   <si>
     <t>74,11%</t>
   </si>
   <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
   </si>
   <si>
     <t>72,2%</t>
   </si>
   <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
   </si>
   <si>
     <t>31,0%</t>
   </si>
   <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
   </si>
   <si>
     <t>25,89%</t>
   </si>
   <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>33,14%</t>
   </si>
   <si>
     <t>27,8%</t>
   </si>
   <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>34,38%</t>
   </si>
   <si>
     <t>82,22%</t>
   </si>
   <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
   </si>
   <si>
     <t>73,72%</t>
   </si>
   <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
   </si>
   <si>
     <t>76,19%</t>
   </si>
   <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
   </si>
   <si>
     <t>17,78%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
   </si>
   <si>
     <t>26,28%</t>
   </si>
   <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>33,9%</t>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
   </si>
   <si>
     <t>23,81%</t>
   </si>
   <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
   </si>
   <si>
     <t>60,97%</t>
   </si>
   <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
   </si>
   <si>
     <t>66,15%</t>
   </si>
   <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>74,1%</t>
+    <t>57,27%</t>
   </si>
   <si>
     <t>64,24%</t>
   </si>
   <si>
-    <t>56,41%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
+    <t>56,74%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
   </si>
   <si>
     <t>39,03%</t>
   </si>
   <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
   </si>
   <si>
     <t>33,85%</t>
   </si>
   <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
+    <t>42,73%</t>
   </si>
   <si>
     <t>35,76%</t>
   </si>
   <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>43,59%</t>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>43,26%</t>
   </si>
   <si>
     <t>65,75%</t>
   </si>
   <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
   </si>
   <si>
     <t>74,48%</t>
   </si>
   <si>
-    <t>80,77%</t>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
   </si>
   <si>
     <t>70,78%</t>
   </si>
   <si>
-    <t>65,54%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
   </si>
   <si>
     <t>34,25%</t>
   </si>
   <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
   </si>
   <si>
     <t>25,52%</t>
   </si>
   <si>
-    <t>19,23%</t>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
   </si>
   <si>
     <t>29,22%</t>
   </si>
   <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
   </si>
   <si>
     <t>54,31%</t>
   </si>
   <si>
-    <t>46,35%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
+    <t>45,92%</t>
   </si>
   <si>
     <t>62,89%</t>
   </si>
   <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>67,68%</t>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>67,33%</t>
   </si>
   <si>
     <t>59,87%</t>
   </si>
   <si>
-    <t>55,58%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
   </si>
   <si>
     <t>45,69%</t>
   </si>
   <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
+    <t>54,08%</t>
   </si>
   <si>
     <t>37,11%</t>
   </si>
   <si>
-    <t>32,32%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
   </si>
   <si>
     <t>40,13%</t>
   </si>
   <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
   </si>
   <si>
     <t>56,98%</t>
   </si>
   <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>64,91%</t>
   </si>
   <si>
     <t>70,65%</t>
   </si>
   <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>75,73%</t>
   </si>
   <si>
     <t>65,57%</t>
   </si>
   <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
   </si>
   <si>
     <t>43,02%</t>
   </si>
   <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
   </si>
   <si>
     <t>29,35%</t>
   </si>
   <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
   </si>
   <si>
     <t>34,43%</t>
   </si>
   <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
   </si>
   <si>
     <t>62,55%</t>
   </si>
   <si>
-    <t>58,67%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
   </si>
   <si>
     <t>69,82%</t>
   </si>
   <si>
-    <t>67,45%</t>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
   </si>
   <si>
     <t>67,21%</t>
   </si>
   <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
+    <t>69,1%</t>
   </si>
   <si>
     <t>37,45%</t>
   </si>
   <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
   </si>
   <si>
     <t>30,18%</t>
   </si>
   <si>
-    <t>32,55%</t>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
   </si>
   <si>
     <t>32,79%</t>
   </si>
   <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
+    <t>30,9%</t>
   </si>
 </sst>
 </file>
@@ -1913,7 +1895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CC9B92-12BF-4DAA-A37F-6C252D7E5FF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E15A4B0-9BDE-46FE-BDD9-FDE11D3D259D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3426,7 +3408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7CF6CA2-DE76-444B-99B4-DFF4515FCD63}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E6C169-EA9B-4783-B122-798DF94CE491}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4340,13 +4322,13 @@
         <v>29361</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -4355,13 +4337,13 @@
         <v>45781</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4376,13 +4358,13 @@
         <v>7794</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4391,13 +4373,13 @@
         <v>2093</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>269</v>
+        <v>24</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -4406,13 +4388,13 @@
         <v>9887</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4462,13 @@
         <v>44063</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
         <v>62</v>
@@ -4495,13 +4477,13 @@
         <v>69839</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>101</v>
@@ -4510,13 +4492,13 @@
         <v>113902</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,13 +4513,13 @@
         <v>18167</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>41</v>
@@ -4546,13 +4528,13 @@
         <v>43281</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>58</v>
@@ -4561,13 +4543,13 @@
         <v>61448</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +4617,13 @@
         <v>44795</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>67</v>
@@ -4650,13 +4632,13 @@
         <v>79300</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>110</v>
@@ -4665,13 +4647,13 @@
         <v>124095</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +4668,13 @@
         <v>21824</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -4701,13 +4683,13 @@
         <v>24473</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>40</v>
@@ -4716,13 +4698,13 @@
         <v>46297</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4790,13 +4772,13 @@
         <v>192837</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H28" s="7">
         <v>324</v>
@@ -4805,13 +4787,13 @@
         <v>364489</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M28" s="7">
         <v>507</v>
@@ -4820,13 +4802,13 @@
         <v>557326</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4841,13 +4823,13 @@
         <v>84651</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H29" s="7">
         <v>119</v>
@@ -4856,13 +4838,13 @@
         <v>128252</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="M29" s="7">
         <v>199</v>
@@ -4871,13 +4853,13 @@
         <v>212903</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,7 +4939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04947A5-3A07-4F40-AF18-93D038C2BE22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8CC53C-3AE1-4132-8BF7-B3525D14C61B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4974,7 +4956,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5081,13 +5063,13 @@
         <v>24014</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="H4" s="7">
         <v>63</v>
@@ -5096,13 +5078,13 @@
         <v>29307</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M4" s="7">
         <v>97</v>
@@ -5111,13 +5093,13 @@
         <v>53321</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,13 +5114,13 @@
         <v>3698</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -5147,13 +5129,13 @@
         <v>3834</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -5162,13 +5144,13 @@
         <v>7532</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5236,13 +5218,13 @@
         <v>48181</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H7" s="7">
         <v>170</v>
@@ -5251,13 +5233,13 @@
         <v>117186</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M7" s="7">
         <v>211</v>
@@ -5266,13 +5248,13 @@
         <v>165366</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,13 +5269,13 @@
         <v>30487</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H8" s="7">
         <v>63</v>
@@ -5302,13 +5284,13 @@
         <v>49999</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="M8" s="7">
         <v>87</v>
@@ -5317,13 +5299,13 @@
         <v>80487</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5391,13 +5373,13 @@
         <v>44112</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="H10" s="7">
         <v>134</v>
@@ -5406,13 +5388,13 @@
         <v>79168</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="M10" s="7">
         <v>190</v>
@@ -5421,13 +5403,13 @@
         <v>123280</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5424,13 @@
         <v>19814</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -5457,13 +5439,13 @@
         <v>27655</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="M11" s="7">
         <v>70</v>
@@ -5472,13 +5454,13 @@
         <v>47470</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5546,13 +5528,13 @@
         <v>41423</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H13" s="7">
         <v>164</v>
@@ -5561,13 +5543,13 @@
         <v>91023</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M13" s="7">
         <v>210</v>
@@ -5576,13 +5558,13 @@
         <v>132446</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,13 +5579,13 @@
         <v>8955</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
@@ -5612,13 +5594,13 @@
         <v>32445</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M14" s="7">
         <v>61</v>
@@ -5627,13 +5609,13 @@
         <v>41401</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,13 +5683,13 @@
         <v>18571</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H16" s="7">
         <v>81</v>
@@ -5716,13 +5698,13 @@
         <v>34486</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>407</v>
+        <v>310</v>
       </c>
       <c r="M16" s="7">
         <v>110</v>
@@ -5731,13 +5713,13 @@
         <v>53057</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,13 +5734,13 @@
         <v>11887</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -5767,13 +5749,13 @@
         <v>17651</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>415</v>
+        <v>319</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M17" s="7">
         <v>61</v>
@@ -5782,13 +5764,13 @@
         <v>29538</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5856,13 +5838,13 @@
         <v>48343</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H19" s="7">
         <v>157</v>
@@ -5871,13 +5853,13 @@
         <v>74515</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>418</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="M19" s="7">
         <v>235</v>
@@ -5886,13 +5868,13 @@
         <v>122858</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5907,13 +5889,13 @@
         <v>25185</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="H20" s="7">
         <v>41</v>
@@ -5922,13 +5904,13 @@
         <v>25530</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>143</v>
+        <v>428</v>
       </c>
       <c r="M20" s="7">
         <v>76</v>
@@ -5937,13 +5919,13 @@
         <v>50715</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6011,13 +5993,13 @@
         <v>88708</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>438</v>
+        <v>381</v>
       </c>
       <c r="H22" s="7">
         <v>286</v>
@@ -6026,13 +6008,13 @@
         <v>188925</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M22" s="7">
         <v>380</v>
@@ -6041,13 +6023,13 @@
         <v>277633</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6062,13 +6044,13 @@
         <v>74638</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>446</v>
+        <v>391</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="H23" s="7">
         <v>161</v>
@@ -6077,13 +6059,13 @@
         <v>111492</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="M23" s="7">
         <v>236</v>
@@ -6092,13 +6074,13 @@
         <v>186130</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6166,13 +6148,13 @@
         <v>82871</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="H25" s="7">
         <v>245</v>
@@ -6181,13 +6163,13 @@
         <v>173702</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="M25" s="7">
         <v>340</v>
@@ -6196,13 +6178,13 @@
         <v>256573</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6217,13 +6199,13 @@
         <v>62574</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="H26" s="7">
         <v>104</v>
@@ -6232,13 +6214,13 @@
         <v>72166</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="M26" s="7">
         <v>171</v>
@@ -6247,13 +6229,13 @@
         <v>134740</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6321,13 +6303,13 @@
         <v>396221</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="H28" s="7">
         <v>1300</v>
@@ -6336,13 +6318,13 @@
         <v>788312</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>372</v>
+        <v>471</v>
       </c>
       <c r="M28" s="7">
         <v>1773</v>
@@ -6351,13 +6333,13 @@
         <v>1184534</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>478</v>
+        <v>277</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,13 +6354,13 @@
         <v>237240</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="H29" s="7">
         <v>515</v>
@@ -6387,13 +6369,13 @@
         <v>340773</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>381</v>
+        <v>478</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="M29" s="7">
         <v>776</v>
@@ -6402,13 +6384,13 @@
         <v>578012</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>487</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14B13-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14B13-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DDD4B76-61BB-4C66-A26E-2AFCB135C623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25F36EA7-70B7-4F81-AA13-21CA8C2A107A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{BFE92EC0-D0C8-4343-B998-FE26B9AB2E91}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FC98320C-F476-4915-932C-880C3BA157BD}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="470">
   <si>
     <t>Población cuyo dolor de espalda le limita en 2012 (Tasa respuesta: 13,39%)</t>
   </si>
@@ -85,934 +85,916 @@
     <t>81,52%</t>
   </si>
   <si>
-    <t>58,01%</t>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
+  </si>
+  <si>
+    <t>35,25%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>60,16%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>73,13%</t>
+  </si>
+  <si>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>93,81%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>84,76%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>75,03%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>49,13%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>56,49%</t>
+  </si>
+  <si>
+    <t>73,49%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>84,98%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>64,51%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
+  </si>
+  <si>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>75,38%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>78,69%</t>
+  </si>
+  <si>
+    <t>72,34%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población cuyo dolor de espalda le limita en 2016 (Tasa respuesta: 10,75%)</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>67,79%</t>
+  </si>
+  <si>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>58,79%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>61,99%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
   </si>
   <si>
     <t>93,35%</t>
   </si>
   <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>74,58%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
+    <t>71,22%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>55,82%</t>
   </si>
   <si>
     <t>6,65%</t>
   </si>
   <si>
-    <t>41,99%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>76,11%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>75,79%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>59,04%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>54,11%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>27,13%</t>
-  </si>
-  <si>
-    <t>40,96%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>93,81%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>59,99%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
-  </si>
-  <si>
-    <t>83,61%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>25,51%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>49,13%</t>
-  </si>
-  <si>
-    <t>36,76%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>38,85%</t>
-  </si>
-  <si>
-    <t>63,24%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>43,5%</t>
-  </si>
-  <si>
-    <t>39,96%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>62,52%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>74,35%</t>
-  </si>
-  <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>25,65%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
-  </si>
-  <si>
-    <t>75,38%</t>
-  </si>
-  <si>
-    <t>71,86%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>72,34%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>28,14%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población cuyo dolor de espalda le limita en 2015 (Tasa respuesta: 10,75%)</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>81,97%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>62,9%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>63,84%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>68,71%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>31,29%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>57,61%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
-  </si>
-  <si>
-    <t>67,79%</t>
-  </si>
-  <si>
-    <t>56,83%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>43,17%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>68,9%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>26,16%</t>
+    <t>28,78%</t>
   </si>
   <si>
     <t>17,76%</t>
   </si>
   <si>
-    <t>8,36%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
   </si>
   <si>
     <t>70,81%</t>
   </si>
   <si>
-    <t>57,15%</t>
-  </si>
-  <si>
-    <t>81,04%</t>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
   </si>
   <si>
     <t>61,74%</t>
   </si>
   <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
   </si>
   <si>
     <t>64,96%</t>
   </si>
   <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
+    <t>56,53%</t>
   </si>
   <si>
     <t>29,19%</t>
   </si>
   <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
   </si>
   <si>
     <t>38,26%</t>
   </si>
   <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
   </si>
   <si>
     <t>35,04%</t>
   </si>
   <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
+    <t>43,47%</t>
   </si>
   <si>
     <t>67,24%</t>
   </si>
   <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
+    <t>55,24%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
   </si>
   <si>
     <t>76,42%</t>
   </si>
   <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
+    <t>65,49%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
   </si>
   <si>
     <t>72,83%</t>
   </si>
   <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>79,32%</t>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>79,81%</t>
   </si>
   <si>
     <t>32,76%</t>
   </si>
   <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>44,76%</t>
   </si>
   <si>
     <t>23,58%</t>
   </si>
   <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
   </si>
   <si>
     <t>27,17%</t>
   </si>
   <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
   </si>
   <si>
     <t>69,49%</t>
   </si>
   <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
     <t>73,97%</t>
   </si>
   <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
   </si>
   <si>
     <t>72,36%</t>
   </si>
   <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
   </si>
   <si>
     <t>30,51%</t>
   </si>
   <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
     <t>26,03%</t>
   </si>
   <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
   </si>
   <si>
     <t>27,64%</t>
   </si>
   <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
   </si>
   <si>
     <t>Población cuyo dolor de espalda le limita en 2023 (Tasa respuesta: 29,15%)</t>
@@ -1030,9 +1012,6 @@
     <t>88,43%</t>
   </si>
   <si>
-    <t>78,96%</t>
-  </si>
-  <si>
     <t>94,5%</t>
   </si>
   <si>
@@ -1060,9 +1039,6 @@
     <t>5,5%</t>
   </si>
   <si>
-    <t>21,04%</t>
-  </si>
-  <si>
     <t>12,38%</t>
   </si>
   <si>
@@ -1084,9 +1060,6 @@
     <t>70,09%</t>
   </si>
   <si>
-    <t>62,25%</t>
-  </si>
-  <si>
     <t>75,88%</t>
   </si>
   <si>
@@ -1114,9 +1087,6 @@
     <t>24,12%</t>
   </si>
   <si>
-    <t>37,75%</t>
-  </si>
-  <si>
     <t>32,74%</t>
   </si>
   <si>
@@ -1195,9 +1165,6 @@
     <t>65,83%</t>
   </si>
   <si>
-    <t>79,53%</t>
-  </si>
-  <si>
     <t>76,19%</t>
   </si>
   <si>
@@ -1217,9 +1184,6 @@
   </si>
   <si>
     <t>26,28%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
   </si>
   <si>
     <t>34,17%</t>
@@ -1895,7 +1859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E15A4B0-9BDE-46FE-BDD9-FDE11D3D259D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E72B0207-F072-43AC-9A2F-3DCA7667D5B5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2183,7 +2147,7 @@
         <v>72</v>
       </c>
       <c r="N7" s="7">
-        <v>78809</v>
+        <v>78810</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>20</v>
@@ -2285,7 +2249,7 @@
         <v>84</v>
       </c>
       <c r="N9" s="7">
-        <v>93135</v>
+        <v>93136</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>32</v>
@@ -2699,7 +2663,7 @@
         <v>6</v>
       </c>
       <c r="N17" s="7">
-        <v>7659</v>
+        <v>7660</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>87</v>
@@ -2750,7 +2714,7 @@
         <v>94</v>
       </c>
       <c r="N18" s="7">
-        <v>101456</v>
+        <v>101457</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>32</v>
@@ -3244,10 +3208,10 @@
         <v>147</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H28" s="7">
         <v>443</v>
@@ -3256,13 +3220,13 @@
         <v>481044</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M28" s="7">
         <v>630</v>
@@ -3271,13 +3235,13 @@
         <v>682988</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3292,13 +3256,13 @@
         <v>103959</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>158</v>
+        <v>67</v>
       </c>
       <c r="H29" s="7">
         <v>143</v>
@@ -3307,13 +3271,13 @@
         <v>157145</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M29" s="7">
         <v>241</v>
@@ -3322,13 +3286,13 @@
         <v>261104</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3384,7 +3348,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3408,7 +3372,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E6C169-EA9B-4783-B122-798DF94CE491}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A42175-AF9B-487E-980D-CAC7D66F18B7}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3425,7 +3389,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3532,13 +3496,13 @@
         <v>15901</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="H4" s="7">
         <v>42</v>
@@ -3547,13 +3511,13 @@
         <v>46621</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M4" s="7">
         <v>56</v>
@@ -3562,13 +3526,13 @@
         <v>62522</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3583,13 +3547,13 @@
         <v>12546</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H5" s="7">
         <v>10</v>
@@ -3598,13 +3562,13 @@
         <v>10254</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M5" s="7">
         <v>22</v>
@@ -3613,13 +3577,13 @@
         <v>22800</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,13 +3651,13 @@
         <v>17012</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H7" s="7">
         <v>22</v>
@@ -3702,13 +3666,13 @@
         <v>24835</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -3717,13 +3681,13 @@
         <v>41847</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3738,13 +3702,13 @@
         <v>6002</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H8" s="7">
         <v>11</v>
@@ -3753,13 +3717,13 @@
         <v>11312</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="M8" s="7">
         <v>17</v>
@@ -3768,13 +3732,13 @@
         <v>17314</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,13 +3806,13 @@
         <v>14917</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -3857,13 +3821,13 @@
         <v>35119</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>47</v>
@@ -3872,13 +3836,13 @@
         <v>50036</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,13 +3857,13 @@
         <v>9086</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H11" s="7">
         <v>14</v>
@@ -3908,13 +3872,13 @@
         <v>14691</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="M11" s="7">
         <v>24</v>
@@ -3923,13 +3887,13 @@
         <v>23777</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,13 +3961,13 @@
         <v>24185</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H13" s="7">
         <v>50</v>
@@ -4012,13 +3976,13 @@
         <v>54681</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="M13" s="7">
         <v>73</v>
@@ -4027,13 +3991,13 @@
         <v>78866</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4048,13 +4012,13 @@
         <v>5550</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -4063,13 +4027,13 @@
         <v>16012</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -4078,13 +4042,13 @@
         <v>21562</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4152,13 +4116,13 @@
         <v>15545</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H16" s="7">
         <v>24</v>
@@ -4167,13 +4131,13 @@
         <v>24734</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="M16" s="7">
         <v>39</v>
@@ -4182,13 +4146,13 @@
         <v>40278</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4167,13 @@
         <v>3682</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>6</v>
@@ -4218,13 +4182,13 @@
         <v>6135</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>10</v>
@@ -4233,13 +4197,13 @@
         <v>9817</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4307,13 +4271,13 @@
         <v>16420</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="H19" s="7">
         <v>26</v>
@@ -4322,13 +4286,13 @@
         <v>29361</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>16</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>42</v>
@@ -4337,13 +4301,13 @@
         <v>45781</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4358,13 +4322,13 @@
         <v>7794</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -4373,13 +4337,13 @@
         <v>2093</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>24</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -4388,13 +4352,13 @@
         <v>9887</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,7 +4462,7 @@
         <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>279</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,13 +4477,13 @@
         <v>18167</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H23" s="7">
         <v>41</v>
@@ -4528,13 +4492,13 @@
         <v>43281</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>58</v>
@@ -4543,13 +4507,13 @@
         <v>61448</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4617,13 +4581,13 @@
         <v>44795</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="H25" s="7">
         <v>67</v>
@@ -4632,13 +4596,13 @@
         <v>79300</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M25" s="7">
         <v>110</v>
@@ -4647,13 +4611,13 @@
         <v>124095</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4668,13 +4632,13 @@
         <v>21824</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>300</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -4683,13 +4647,13 @@
         <v>24473</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>301</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="M26" s="7">
         <v>40</v>
@@ -4698,13 +4662,13 @@
         <v>46297</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,13 +4736,13 @@
         <v>192837</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>308</v>
+        <v>171</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>309</v>
+        <v>21</v>
       </c>
       <c r="H28" s="7">
         <v>324</v>
@@ -4787,13 +4751,13 @@
         <v>364489</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="M28" s="7">
         <v>507</v>
@@ -4802,13 +4766,13 @@
         <v>557326</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4823,13 +4787,13 @@
         <v>84651</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>317</v>
+        <v>31</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>318</v>
+        <v>180</v>
       </c>
       <c r="H29" s="7">
         <v>119</v>
@@ -4838,13 +4802,13 @@
         <v>128252</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="M29" s="7">
         <v>199</v>
@@ -4853,13 +4817,13 @@
         <v>212903</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4915,7 +4879,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -4939,7 +4903,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E8CC53C-3AE1-4132-8BF7-B3525D14C61B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE5D7B5A-C756-4F99-B23E-BFDAA56ABE36}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4956,7 +4920,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5063,13 +5027,13 @@
         <v>24014</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="H4" s="7">
         <v>63</v>
@@ -5078,13 +5042,13 @@
         <v>29307</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M4" s="7">
         <v>97</v>
@@ -5093,13 +5057,13 @@
         <v>53321</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,13 +5078,13 @@
         <v>3698</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -5129,13 +5093,13 @@
         <v>3834</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>297</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -5144,13 +5108,13 @@
         <v>7532</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5218,13 +5182,13 @@
         <v>48181</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="H7" s="7">
         <v>170</v>
@@ -5233,13 +5197,13 @@
         <v>117186</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="M7" s="7">
         <v>211</v>
@@ -5248,13 +5212,13 @@
         <v>165366</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,13 +5233,13 @@
         <v>30487</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="H8" s="7">
         <v>63</v>
@@ -5284,13 +5248,13 @@
         <v>49999</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>358</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
         <v>87</v>
@@ -5299,13 +5263,13 @@
         <v>80487</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5337,13 @@
         <v>44112</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="H10" s="7">
         <v>134</v>
@@ -5388,13 +5352,13 @@
         <v>79168</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="M10" s="7">
         <v>190</v>
@@ -5403,13 +5367,13 @@
         <v>123280</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5424,13 +5388,13 @@
         <v>19814</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="H11" s="7">
         <v>43</v>
@@ -5439,13 +5403,13 @@
         <v>27655</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="M11" s="7">
         <v>70</v>
@@ -5454,13 +5418,13 @@
         <v>47470</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5528,13 +5492,13 @@
         <v>41423</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="H13" s="7">
         <v>164</v>
@@ -5543,13 +5507,13 @@
         <v>91023</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>385</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>210</v>
@@ -5558,13 +5522,13 @@
         <v>132446</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5579,13 +5543,13 @@
         <v>8955</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="H14" s="7">
         <v>53</v>
@@ -5594,13 +5558,13 @@
         <v>32445</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>393</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="M14" s="7">
         <v>61</v>
@@ -5609,13 +5573,13 @@
         <v>41401</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5683,13 +5647,13 @@
         <v>18571</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="H16" s="7">
         <v>81</v>
@@ -5698,13 +5662,13 @@
         <v>34486</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>401</v>
+        <v>389</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>402</v>
+        <v>390</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M16" s="7">
         <v>110</v>
@@ -5713,13 +5677,13 @@
         <v>53057</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5734,13 +5698,13 @@
         <v>11887</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="H17" s="7">
         <v>42</v>
@@ -5749,13 +5713,13 @@
         <v>17651</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>409</v>
+        <v>397</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="M17" s="7">
         <v>61</v>
@@ -5764,13 +5728,13 @@
         <v>29538</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>411</v>
+        <v>399</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>412</v>
+        <v>400</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>413</v>
+        <v>401</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5838,13 +5802,13 @@
         <v>48343</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="H19" s="7">
         <v>157</v>
@@ -5853,13 +5817,13 @@
         <v>74515</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="M19" s="7">
         <v>235</v>
@@ -5868,13 +5832,13 @@
         <v>122858</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>420</v>
+        <v>408</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>421</v>
+        <v>409</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5889,13 +5853,13 @@
         <v>25185</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>425</v>
+        <v>413</v>
       </c>
       <c r="H20" s="7">
         <v>41</v>
@@ -5904,13 +5868,13 @@
         <v>25530</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>426</v>
+        <v>414</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>427</v>
+        <v>415</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>428</v>
+        <v>416</v>
       </c>
       <c r="M20" s="7">
         <v>76</v>
@@ -5919,13 +5883,13 @@
         <v>50715</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5993,13 +5957,13 @@
         <v>88708</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="H22" s="7">
         <v>286</v>
@@ -6008,13 +5972,13 @@
         <v>188925</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>435</v>
+        <v>423</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>436</v>
+        <v>424</v>
       </c>
       <c r="M22" s="7">
         <v>380</v>
@@ -6023,13 +5987,13 @@
         <v>277633</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>437</v>
+        <v>425</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>438</v>
+        <v>426</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>439</v>
+        <v>427</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6044,13 +6008,13 @@
         <v>74638</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>440</v>
+        <v>428</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>441</v>
+        <v>429</v>
       </c>
       <c r="H23" s="7">
         <v>161</v>
@@ -6059,13 +6023,13 @@
         <v>111492</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>442</v>
+        <v>430</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="M23" s="7">
         <v>236</v>
@@ -6074,13 +6038,13 @@
         <v>186130</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>445</v>
+        <v>433</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,13 +6112,13 @@
         <v>82871</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
       <c r="H25" s="7">
         <v>245</v>
@@ -6163,13 +6127,13 @@
         <v>173702</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="M25" s="7">
         <v>340</v>
@@ -6178,13 +6142,13 @@
         <v>256573</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,13 +6163,13 @@
         <v>62574</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="H26" s="7">
         <v>104</v>
@@ -6214,13 +6178,13 @@
         <v>72166</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="M26" s="7">
         <v>171</v>
@@ -6229,13 +6193,13 @@
         <v>134740</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6303,13 +6267,13 @@
         <v>396221</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>467</v>
+        <v>455</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>468</v>
+        <v>456</v>
       </c>
       <c r="H28" s="7">
         <v>1300</v>
@@ -6318,13 +6282,13 @@
         <v>788312</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>469</v>
+        <v>457</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>470</v>
+        <v>458</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="M28" s="7">
         <v>1773</v>
@@ -6333,13 +6297,13 @@
         <v>1184534</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>277</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,13 +6318,13 @@
         <v>237240</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
       <c r="H29" s="7">
         <v>515</v>
@@ -6369,13 +6333,13 @@
         <v>340773</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>479</v>
+        <v>467</v>
       </c>
       <c r="M29" s="7">
         <v>776</v>
@@ -6384,13 +6348,13 @@
         <v>578012</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>480</v>
+        <v>468</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>481</v>
+        <v>469</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6446,7 +6410,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
